--- a/trunk/CABLEADO ESTRUCTURADO/Consumo.xlsx
+++ b/trunk/CABLEADO ESTRUCTURADO/Consumo.xlsx
@@ -604,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,14 +1157,14 @@
         <v>3</v>
       </c>
       <c r="D31" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E31" s="7">
         <v>400</v>
       </c>
       <c r="F31" s="7">
         <f t="shared" ref="F31" si="4">D31*E31</f>
-        <v>3600</v>
+        <v>5600</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>3</v>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="F34" s="7">
         <f>SUM(F30:F33)</f>
-        <v>4035</v>
+        <v>6035</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>12</v>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="F35" s="15">
         <f>F34+(F34*$I$41)</f>
-        <v>4842</v>
+        <v>7242</v>
       </c>
       <c r="K35" s="14" t="s">
         <v>17</v>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="F36" s="26">
         <f>F35/$L$41</f>
-        <v>22.009090909090908</v>
+        <v>32.918181818181822</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>20</v>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I42">
         <f>F13+L10+F23+L23+F35+L35+F48+F57+L57</f>
-        <v>47006.400000000009</v>
+        <v>49406.400000000009</v>
       </c>
       <c r="J42" t="s">
         <v>15</v>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="I44" s="12">
         <f>I42/L41</f>
-        <v>213.66545454545459</v>
+        <v>224.5745454545455</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">

--- a/trunk/CABLEADO ESTRUCTURADO/Consumo.xlsx
+++ b/trunk/CABLEADO ESTRUCTURADO/Consumo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="37">
   <si>
     <t>Planta Baja</t>
   </si>
@@ -115,6 +115,18 @@
   </si>
   <si>
     <t>Switch fibra</t>
+  </si>
+  <si>
+    <t>0,85*</t>
+  </si>
+  <si>
+    <t>Pot Transf.(KV)</t>
+  </si>
+  <si>
+    <t>Transf (KVA)</t>
+  </si>
+  <si>
+    <t>Factor utliz.(%)</t>
   </si>
 </sst>
 </file>
@@ -244,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -301,6 +313,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1322,8 +1335,8 @@
         <v>14</v>
       </c>
       <c r="I42">
-        <f>F13+L10+F23+L23+F35+L35+F48+F57+L57</f>
-        <v>49406.400000000009</v>
+        <f>F13+L10+F23+L23+F35+L35+F47+F57+L57</f>
+        <v>49364.400000000009</v>
       </c>
       <c r="J42" t="s">
         <v>15</v>
@@ -1346,7 +1359,7 @@
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C44" s="4" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D44" s="7">
         <v>1</v>
@@ -1363,58 +1376,66 @@
       </c>
       <c r="I44" s="12">
         <f>I42/L41</f>
-        <v>224.5745454545455</v>
+        <v>224.38363636363641</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C45" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" s="7">
-        <v>1</v>
-      </c>
-      <c r="E45" s="7">
-        <v>35</v>
-      </c>
-      <c r="F45" s="7">
-        <f>D45*E45</f>
-        <v>35</v>
-      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
       <c r="M45" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C46" s="4"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
+      <c r="E46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="7">
+        <f>SUM(F42:F45)</f>
+        <v>935</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E47" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="7">
-        <f>SUM(F42:F46)</f>
-        <v>970</v>
+      <c r="E47" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="15">
+        <f>F46+(F46*$I$41)</f>
+        <v>1122</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47" s="30">
+        <f>I42/(0.85*1000)</f>
+        <v>58.075764705882364</v>
+      </c>
+      <c r="K47">
+        <v>75</v>
+      </c>
+      <c r="M47" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E48" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="15">
-        <f>F47+(F47*$I$41)</f>
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E49" s="4" t="s">
+      <c r="E48" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F49" s="26">
-        <f>F48/$L$41</f>
-        <v>5.290909090909091</v>
+      <c r="F48" s="26">
+        <f>F47/$L$41</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I48" s="30">
+        <f>I47*100/(K47)</f>
+        <v>77.434352941176485</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">

--- a/trunk/CABLEADO ESTRUCTURADO/Consumo.xlsx
+++ b/trunk/CABLEADO ESTRUCTURADO/Consumo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="34">
   <si>
     <t>Planta Baja</t>
   </si>
@@ -117,16 +117,7 @@
     <t>Switch fibra</t>
   </si>
   <si>
-    <t>0,85*</t>
-  </si>
-  <si>
-    <t>Pot Transf.(KV)</t>
-  </si>
-  <si>
-    <t>Transf (KVA)</t>
-  </si>
-  <si>
-    <t>Factor utliz.(%)</t>
+    <t>Produccion - Expedición</t>
   </si>
 </sst>
 </file>
@@ -256,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -313,7 +304,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N47" sqref="N47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -1335,8 +1325,8 @@
         <v>14</v>
       </c>
       <c r="I42">
-        <f>F13+L10+F23+L23+F35+L35+F47+F57+L57</f>
-        <v>49364.400000000009</v>
+        <f>F13+L10+F23+L23+F35+L35+F48+F57+L57</f>
+        <v>49406.400000000009</v>
       </c>
       <c r="J42" t="s">
         <v>15</v>
@@ -1359,7 +1349,7 @@
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C44" s="4" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D44" s="7">
         <v>1</v>
@@ -1376,66 +1366,58 @@
       </c>
       <c r="I44" s="12">
         <f>I42/L41</f>
-        <v>224.38363636363641</v>
+        <v>224.5745454545455</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C45" s="4"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
+      <c r="C45" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="7">
+        <v>1</v>
+      </c>
+      <c r="E45" s="7">
+        <v>35</v>
+      </c>
+      <c r="F45" s="7">
+        <f>D45*E45</f>
+        <v>35</v>
+      </c>
       <c r="M45" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E46" s="4" t="s">
+      <c r="C46" s="4"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E47" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="7">
-        <f>SUM(F42:F45)</f>
-        <v>935</v>
-      </c>
-      <c r="K46" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E47" s="14" t="s">
+      <c r="F47" s="7">
+        <f>SUM(F42:F46)</f>
+        <v>970</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E48" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F47" s="15">
-        <f>F46+(F46*$I$41)</f>
-        <v>1122</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I47" s="30">
-        <f>I42/(0.85*1000)</f>
-        <v>58.075764705882364</v>
-      </c>
-      <c r="K47">
-        <v>75</v>
-      </c>
-      <c r="M47" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E48" s="4" t="s">
+      <c r="F48" s="15">
+        <f>F47+(F47*$I$41)</f>
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E49" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F48" s="26">
-        <f>F47/$L$41</f>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I48" s="30">
-        <f>I47*100/(K47)</f>
-        <v>77.434352941176485</v>
+      <c r="F49" s="26">
+        <f>F48/$L$41</f>
+        <v>5.290909090909091</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">

--- a/trunk/CABLEADO ESTRUCTURADO/Consumo.xlsx
+++ b/trunk/CABLEADO ESTRUCTURADO/Consumo.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="210" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="39">
   <si>
     <t>Planta Baja</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Precio</t>
   </si>
   <si>
-    <t>P=400w = 220v *a</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -118,12 +115,33 @@
   </si>
   <si>
     <t>Produccion - Expedición</t>
+  </si>
+  <si>
+    <t>pb</t>
+  </si>
+  <si>
+    <t>Cable entrada(mm)</t>
+  </si>
+  <si>
+    <t>Factor potencia</t>
+  </si>
+  <si>
+    <t>ps</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>usamos pisos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]&quot;$&quot;\ \-#,##0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -133,7 +151,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,8 +176,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -243,11 +267,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -263,9 +331,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -286,7 +351,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -304,6 +368,22 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M62"/>
+  <dimension ref="B2:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,12 +836,12 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="18">
-        <v>1</v>
-      </c>
-      <c r="E7" s="18">
+        <v>31</v>
+      </c>
+      <c r="D7" s="15">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15">
         <v>40</v>
       </c>
       <c r="F7" s="7">
@@ -794,7 +874,7 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="7">
         <v>4</v>
@@ -816,7 +896,7 @@
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -828,66 +908,66 @@
         <f>D10*E10</f>
         <v>4</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="15">
-        <f>L9+(L9*$I$41)</f>
+      <c r="L10" s="12">
+        <f>L9+(L9*$D$54)</f>
         <v>10596</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="15">
-        <v>1</v>
-      </c>
-      <c r="E11" s="15">
+        <v>30</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12">
         <v>3000</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="12">
         <f>D11*E11</f>
         <v>3000</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="26">
-        <f>L10/$L$41</f>
+        <v>19</v>
+      </c>
+      <c r="L11" s="22">
+        <f>L10/$G$54</f>
         <v>48.163636363636364</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="24">
         <f>SUM(F4:F11)</f>
         <v>7204</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="15">
-        <f>F12+(F12*I41)</f>
+      <c r="F13" s="12">
+        <f>F12+(F12*D54)</f>
         <v>8644.7999999999993</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="26">
-        <f>F13/$L$41</f>
+        <v>19</v>
+      </c>
+      <c r="F14" s="22">
+        <f>F13/$G$54</f>
         <v>39.29454545454545</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="23"/>
-      <c r="F15" s="29"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="25"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
@@ -1048,34 +1128,34 @@
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="15">
-        <f>F22+(F22*$I$41)</f>
+      <c r="F23" s="12">
+        <f>F22+(F22*$D$54)</f>
         <v>7482</v>
       </c>
-      <c r="K23" s="14" t="s">
+      <c r="K23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L23" s="15">
-        <f>L22+(L22*$I$41)</f>
+      <c r="L23" s="12">
+        <f>L22+(L22*$D$54)</f>
         <v>10362</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="26">
-        <f>F23/$L$41</f>
+        <v>19</v>
+      </c>
+      <c r="F24" s="22">
+        <f>F23/$G$54</f>
         <v>34.009090909090908</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="26">
-        <f>L23/$L$41</f>
+        <v>19</v>
+      </c>
+      <c r="L24" s="22">
+        <f>L23/$G$54</f>
         <v>47.1</v>
       </c>
     </row>
@@ -1211,7 +1291,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C33" s="4"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -1221,7 +1301,7 @@
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E34" s="4" t="s">
         <v>12</v>
       </c>
@@ -1237,50 +1317,57 @@
         <v>3235</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E35" s="14" t="s">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E35" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="15">
-        <f>F34+(F34*$I$41)</f>
+      <c r="F35" s="12">
+        <f>F34+(F34*$D$54)</f>
         <v>7242</v>
       </c>
-      <c r="K35" s="14" t="s">
+      <c r="K35" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L35" s="15">
-        <f>L34+(L34*$I$41)</f>
+      <c r="L35" s="12">
+        <f>L34+(L34*$D$54)</f>
         <v>3882</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="26">
-        <f>F35/$L$41</f>
+        <v>19</v>
+      </c>
+      <c r="F36" s="22">
+        <f>F35/$G$54</f>
         <v>32.918181818181822</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" s="26">
-        <f>L35/$L$41</f>
+        <v>19</v>
+      </c>
+      <c r="L36" s="22">
+        <f>L35/$G$54</f>
         <v>17.645454545454545</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>2</v>
       </c>
@@ -1294,20 +1381,21 @@
       <c r="F41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H41" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41">
-        <v>0.2</v>
+      <c r="H41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L41">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="L41" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C42" s="4" t="s">
         <v>4</v>
       </c>
@@ -1321,18 +1409,21 @@
         <f>D42*E42</f>
         <v>100</v>
       </c>
-      <c r="H42" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I42">
-        <f>F13+L10+F23+L23+F35+L35+F48+F57+L57</f>
-        <v>49406.400000000009</v>
-      </c>
-      <c r="J42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I42" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" s="7">
+        <v>2</v>
+      </c>
+      <c r="K42" s="15">
+        <v>5</v>
+      </c>
+      <c r="L42" s="15">
+        <f>K42*J42</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C43" s="4" t="s">
         <v>3</v>
       </c>
@@ -1346,8 +1437,21 @@
         <f t="shared" ref="F43" si="6">D43*E43</f>
         <v>800</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I43" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43" s="15">
+        <v>1</v>
+      </c>
+      <c r="K43" s="15">
+        <v>4</v>
+      </c>
+      <c r="L43" s="15">
+        <f>K43*J43</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C44" s="4" t="s">
         <v>9</v>
       </c>
@@ -1361,17 +1465,20 @@
         <f>D44*E44</f>
         <v>35</v>
       </c>
-      <c r="H44" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I44" s="12">
-        <f>I42/L41</f>
-        <v>224.5745454545455</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H44" s="16"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L44" s="15">
+        <f>SUM(L42:L43)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C45" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D45" s="7">
         <v>1</v>
@@ -1383,17 +1490,31 @@
         <f>D45*E45</f>
         <v>35</v>
       </c>
-      <c r="M45" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H45" s="16"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L45" s="15">
+        <f>L44+L44*D54</f>
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C46" s="4"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L46" s="22">
+        <f>L45/G54</f>
+        <v>7.636363636363637E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E47" s="4" t="s">
         <v>12</v>
       </c>
@@ -1402,184 +1523,230 @@
         <v>970</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E48" s="14" t="s">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E48" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F48" s="15">
-        <f>F47+(F47*$I$41)</f>
+      <c r="F48" s="12">
+        <f>F47+(F47*$D$54)</f>
         <v>1164</v>
       </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="22">
+        <f>F48/$G$54</f>
+        <v>5.290909090909091</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I49" s="5"/>
+      <c r="J49" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L49" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="I50" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50" s="7">
+        <v>2</v>
+      </c>
+      <c r="K50" s="15">
+        <v>5</v>
+      </c>
+      <c r="L50" s="15">
+        <f>K50*J50</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="I51" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J51" s="15">
+        <v>1</v>
+      </c>
+      <c r="K51" s="15">
+        <v>4</v>
+      </c>
+      <c r="L51" s="15">
+        <f>K51*J51</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="I52" s="19"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L52" s="15">
+        <f>SUM(L50:L51)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="I53" s="19"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" s="15">
+        <f>L52+L52*D54</f>
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C54" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="E54" s="35"/>
+      <c r="F54" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="31">
+        <v>220</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L54" s="22">
+        <f>L53/G54</f>
+        <v>7.636363636363637E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C55" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="36">
+        <f>F13+L10+F23+L23+F35+L35+F48+L45+L53</f>
+        <v>49406.400000000009</v>
+      </c>
+      <c r="E55" s="37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="H56" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="I56">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F49" s="26">
-        <f>F48/$L$41</f>
-        <v>5.290909090909091</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52" s="3"/>
-      <c r="H52" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J52" s="3"/>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="16" t="s">
+      <c r="D57" s="30">
+        <f>D55/G54</f>
+        <v>224.5745454545455</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C58" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" s="28"/>
+      <c r="E58" s="31">
+        <v>8.25</v>
+      </c>
+      <c r="I58">
+        <f>D55*I56</f>
+        <v>40513.248000000007</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C59" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="31">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F59" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C60" s="32">
+        <v>1</v>
+      </c>
+      <c r="D60" s="31">
+        <v>2.6</v>
+      </c>
+      <c r="F60">
+        <v>3.2</v>
+      </c>
+      <c r="G60" s="39"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C61" s="32">
+        <v>2</v>
+      </c>
+      <c r="D61" s="31">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C62" s="32">
+        <v>3</v>
+      </c>
+      <c r="D62" s="31">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C63" s="32">
+        <v>4</v>
+      </c>
+      <c r="D63" s="31">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C64" s="32">
         <v>5</v>
       </c>
-      <c r="E53" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F53" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I53" s="5"/>
-      <c r="J53" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="K53" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="L53" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C54" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54" s="7">
-        <v>2</v>
-      </c>
-      <c r="E54" s="18">
-        <v>5</v>
-      </c>
-      <c r="F54" s="18">
-        <f>E54*D54</f>
-        <v>10</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J54" s="7">
-        <v>2</v>
-      </c>
-      <c r="K54" s="18">
-        <v>5</v>
-      </c>
-      <c r="L54" s="18">
-        <f>K54*J54</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C55" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D55" s="18">
-        <v>1</v>
-      </c>
-      <c r="E55" s="18">
-        <v>4</v>
-      </c>
-      <c r="F55" s="18">
-        <f>E55*D55</f>
-        <v>4</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J55" s="18">
-        <v>1</v>
-      </c>
-      <c r="K55" s="18">
-        <v>4</v>
-      </c>
-      <c r="L55" s="18">
-        <f>K55*J55</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="19"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="18">
-        <f>SUM(F54:F55)</f>
-        <v>14</v>
-      </c>
-      <c r="I56" s="23"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L56" s="18">
-        <f>SUM(L54:L55)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="19"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F57" s="18">
-        <f>F56+F56*I41</f>
-        <v>16.8</v>
-      </c>
-      <c r="I57" s="23"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="L57" s="18">
-        <f>L56+L56*I41</f>
-        <v>16.8</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E58" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F58" s="26">
-        <f>F57/L41</f>
-        <v>7.636363636363637E-2</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L58" s="26">
-        <f>L57/L41</f>
-        <v>7.636363636363637E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D62" s="22"/>
+      <c r="D64" s="31">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C65" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" s="38">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" s="38">
+        <v>0.22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1591,8 +1758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/CABLEADO ESTRUCTURADO/Consumo.xlsx
+++ b/trunk/CABLEADO ESTRUCTURADO/Consumo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="210" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="270" windowWidth="20115" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
     <t>ss</t>
   </si>
   <si>
-    <t>usamos pisos</t>
+    <t>Cable a usar(mm)</t>
   </si>
 </sst>
 </file>
@@ -151,7 +151,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,6 +179,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -384,6 +390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59:G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,6 +1670,9 @@
         <f>D55/G54</f>
         <v>224.5745454545455</v>
       </c>
+      <c r="F57" s="40" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="58" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C58" s="27" t="s">
@@ -1672,6 +1682,9 @@
       <c r="E58" s="31">
         <v>8.25</v>
       </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
       <c r="I58">
         <f>D55*I56</f>
         <v>40513.248000000007</v>
@@ -1684,8 +1697,8 @@
       <c r="D59" s="31">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F59" s="26" t="s">
-        <v>38</v>
+      <c r="F59">
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="3:12" x14ac:dyDescent="0.25">
@@ -1696,7 +1709,7 @@
         <v>2.6</v>
       </c>
       <c r="F60">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="G60" s="39"/>
     </row>
@@ -1706,6 +1719,9 @@
       </c>
       <c r="D61" s="31">
         <v>1.83</v>
+      </c>
+      <c r="F61">
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="3:12" x14ac:dyDescent="0.25">
@@ -1715,6 +1731,9 @@
       <c r="D62" s="31">
         <v>2.2999999999999998</v>
       </c>
+      <c r="F62">
+        <v>4</v>
+      </c>
     </row>
     <row r="63" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C63" s="32">
@@ -1722,6 +1741,9 @@
       </c>
       <c r="D63" s="31">
         <v>1.82</v>
+      </c>
+      <c r="F63">
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="3:12" x14ac:dyDescent="0.25">
@@ -1731,21 +1753,30 @@
       <c r="D64" s="31">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C65" s="32" t="s">
         <v>36</v>
       </c>
       <c r="D65" s="38">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C66" s="32" t="s">
         <v>37</v>
       </c>
       <c r="D66" s="38">
         <v>0.22</v>
+      </c>
+      <c r="F66">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/CABLEADO ESTRUCTURADO/Consumo.xlsx
+++ b/trunk/CABLEADO ESTRUCTURADO/Consumo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="270" windowWidth="20115" windowHeight="7875"/>
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="40">
   <si>
     <t>Planta Baja</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Cable a usar(mm)</t>
+  </si>
+  <si>
+    <t>Modem Router</t>
   </si>
 </sst>
 </file>
@@ -694,18 +697,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59:G63"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -790,14 +798,14 @@
         <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E5" s="7">
         <v>400</v>
       </c>
       <c r="F5" s="7">
         <f t="shared" ref="F5:F7" si="0">D5*E5</f>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>3</v>
@@ -815,7 +823,7 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D6" s="7">
         <v>1</v>
@@ -951,7 +959,7 @@
       </c>
       <c r="F12" s="24">
         <f>SUM(F4:F11)</f>
-        <v>7204</v>
+        <v>5204</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -960,7 +968,7 @@
       </c>
       <c r="F13" s="12">
         <f>F12+(F12*D54)</f>
-        <v>8644.7999999999993</v>
+        <v>6244.8</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
@@ -969,7 +977,7 @@
       </c>
       <c r="F14" s="22">
         <f>F13/$G$54</f>
-        <v>39.29454545454545</v>
+        <v>28.385454545454547</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
@@ -1460,7 +1468,7 @@
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C44" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D44" s="7">
         <v>1</v>
@@ -1484,19 +1492,10 @@
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C45" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="7">
-        <v>1</v>
-      </c>
-      <c r="E45" s="7">
-        <v>35</v>
-      </c>
-      <c r="F45" s="7">
-        <f>D45*E45</f>
-        <v>35</v>
-      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
       <c r="H45" s="16"/>
       <c r="I45" s="19"/>
       <c r="J45" s="18"/>
@@ -1509,10 +1508,13 @@
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C46" s="4"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
+      <c r="E46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="7">
+        <f>SUM(F42:F45)</f>
+        <v>935</v>
+      </c>
       <c r="K46" s="4" t="s">
         <v>19</v>
       </c>
@@ -1522,21 +1524,21 @@
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E47" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="7">
-        <f>SUM(F42:F46)</f>
-        <v>970</v>
+      <c r="E47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="12">
+        <f>F46+(F46*$D$54)</f>
+        <v>1122</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E48" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="12">
-        <f>F47+(F47*$D$54)</f>
-        <v>1164</v>
+      <c r="E48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="22">
+        <f>F47/$G$54</f>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>1</v>
@@ -1547,13 +1549,6 @@
       <c r="J48" s="3"/>
     </row>
     <row r="49" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="E49" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49" s="22">
-        <f>F48/$G$54</f>
-        <v>5.290909090909091</v>
-      </c>
       <c r="H49" s="4" t="s">
         <v>2</v>
       </c>
@@ -1647,8 +1642,8 @@
         <v>14</v>
       </c>
       <c r="D55" s="36">
-        <f>F13+L10+F23+L23+F35+L35+F48+L45+L53</f>
-        <v>49406.400000000009</v>
+        <f>F13+L10+F23+L23+F35+L35+F47+L45+L53</f>
+        <v>46964.400000000009</v>
       </c>
       <c r="E55" s="37" t="s">
         <v>15</v>
@@ -1668,7 +1663,7 @@
       </c>
       <c r="D57" s="30">
         <f>D55/G54</f>
-        <v>224.5745454545455</v>
+        <v>213.47454545454551</v>
       </c>
       <c r="F57" s="40" t="s">
         <v>38</v>
@@ -1687,7 +1682,7 @@
       </c>
       <c r="I58">
         <f>D55*I56</f>
-        <v>40513.248000000007</v>
+        <v>38510.808000000005</v>
       </c>
     </row>
     <row r="59" spans="3:12" x14ac:dyDescent="0.25">
